--- a/flows/KWEB_fund_flow_data.xlsx
+++ b/flows/KWEB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2655"/>
+  <dimension ref="A1:B2679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26985,6 +26985,246 @@
         <v>-0.8861724</v>
       </c>
     </row>
+    <row r="2656">
+      <c r="A2656" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B2656" t="n">
+        <v>-0.58433306</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="B2657" t="n">
+        <v>2.0383446</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B2658" t="n">
+        <v>1.6899536</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B2659" t="n">
+        <v>10.550456</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B2660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B2661" t="n">
+        <v>9.013859999999999</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B2662" t="n">
+        <v>-0.5588184</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2663" t="n">
+        <v>-0.18726443</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2664" t="n">
+        <v>12.597852</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2665" t="n">
+        <v>2.3669882</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2666" t="n">
+        <v>54.8366</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2667" t="n">
+        <v>0.23455356</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2668" t="n">
+        <v>-0.9386906</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2669" t="n">
+        <v>1.1415529</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2670" t="n">
+        <v>-0.90938604</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2671" t="n">
+        <v>-0.15059486</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2672" t="n">
+        <v>-26.798313</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2673" t="n">
+        <v>-27.913507</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2674" t="n">
+        <v>-16.081505</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2675" t="n">
+        <v>-3.6714952</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2676" t="n">
+        <v>-20.922993</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2677" t="n">
+        <v>-0.22577909</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2678" t="n">
+        <v>-0.17712344</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2679" t="n">
+        <v>-12.1134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
